--- a/data/trans_dic/P32D_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,28</t>
+          <t>4,1; 10,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,82</t>
+          <t>1,48; 8,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,48</t>
+          <t>3,79; 8,38</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,18</t>
+          <t>3,7; 10,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 14,48</t>
+          <t>4,89; 15,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 10,28</t>
+          <t>4,89; 10,22</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 19,9</t>
+          <t>9,06; 19,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 13,31</t>
+          <t>1,79; 13,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,49; 17,64</t>
+          <t>8,86; 17,91</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,55; 10,11</t>
+          <t>5,33; 10,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 6,01</t>
+          <t>0,54; 5,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,53</t>
+          <t>2,38; 7,47</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,85; 21,23</t>
+          <t>9,73; 20,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,42; 10,52</t>
+          <t>3,49; 10,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,45; 16,14</t>
+          <t>7,95; 15,86</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,11; 20,6</t>
+          <t>2,05; 18,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,73; 18,56</t>
+          <t>5,03; 17,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,67; 15,05</t>
+          <t>4,98; 15,26</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 10,91</t>
+          <t>7,69; 10,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 7,14</t>
+          <t>2,76; 7,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,48; 8,78</t>
+          <t>5,76; 8,94</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19201</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6228</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25428</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11565; 29065</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2394; 13532</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16831; 37191</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13641</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11625</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25267</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7851; 22472</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6552; 20312</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16913; 35382</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29286</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2198</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>31484</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19064; 41393</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>712; 5480</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>22155; 44792</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38669</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>10615</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>49284</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>27179; 51978</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2232; 24533</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>21966; 69095</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>33076</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8089</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41165</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>22112; 46923</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4517; 14118</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28337; 56536</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6637</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>12072</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>18709</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1924; 17688</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6105; 21778</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>10720; 32823</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>140510</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>50827</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>191337</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>118037; 164526</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>27618; 70326</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>146203; 226718</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P32D_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32D_R-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
